--- a/00 Tổng kết/Điểm danh (Tổng kết vào cuối tháng).xlsx
+++ b/00 Tổng kết/Điểm danh (Tổng kết vào cuối tháng).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Học Sinh\00 Tổng kết\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\WEB-Hoc sinh\00 Tổng kết\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C10E18-7235-4BDE-9A91-8D83659D26BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BD77C0-0A34-4410-8DD6-848203387AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>STT</t>
   </si>
@@ -337,6 +337,12 @@
       </rPr>
       <t>: về sớm</t>
     </r>
+  </si>
+  <si>
+    <t>Khổng Minh Đăng</t>
+  </si>
+  <si>
+    <t>05</t>
   </si>
 </sst>
 </file>
@@ -977,18 +983,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX942"/>
+  <dimension ref="A1:AX943"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.8984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" style="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.796875" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.59765625" style="40" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.69921875" style="40" bestFit="1" customWidth="1"/>
@@ -1031,8 +1037,8 @@
         <v>17</v>
       </c>
       <c r="F1" s="57" t="str">
-        <f>"Danh sách học"&amp;" "&amp;B6&amp;"/"&amp;B7</f>
-        <v>Danh sách học 1/2025</v>
+        <f>"Danh sách học"&amp;" "&amp;B7&amp;"/"&amp;B8</f>
+        <v>Danh sách học 2/2025</v>
       </c>
       <c r="G1" s="58"/>
       <c r="H1" s="58"/>
@@ -1097,7 +1103,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="27" t="str">
-        <f t="shared" ref="E2:E5" si="0">C2&amp;RIGHT(B2,2)&amp;D2</f>
+        <f t="shared" ref="E2:E6" si="0">C2&amp;RIGHT(B2,2)&amp;D2</f>
         <v>100901</v>
       </c>
       <c r="F2" s="28"/>
@@ -1150,8 +1156,8 @@
         <v>0</v>
       </c>
       <c r="AP2" s="34" t="str">
-        <f>"Phụ huynh "&amp;A2&amp;" t"&amp;$B$6</f>
-        <v>Phụ huynh Vũ Văn Tiến t1</v>
+        <f>"Phụ huynh "&amp;A2&amp;" t"&amp;$B$7</f>
+        <v>Phụ huynh Vũ Văn Tiến t2</v>
       </c>
     </row>
     <row r="3" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
@@ -1213,16 +1219,16 @@
         <v>100000</v>
       </c>
       <c r="AN3" s="32">
-        <f t="shared" ref="AN3:AN5" si="1">COUNT(F3:AJ3)</f>
+        <f t="shared" ref="AN3:AN6" si="1">COUNT(F3:AJ3)</f>
         <v>0</v>
       </c>
       <c r="AO3" s="33">
-        <f t="shared" ref="AO3:AO5" si="2">AN3*AM3-AK3</f>
+        <f t="shared" ref="AO3:AO6" si="2">AN3*AM3-AK3</f>
         <v>0</v>
       </c>
       <c r="AP3" s="34" t="str">
-        <f>"Phụ huynh "&amp;A3&amp;" t"&amp;$B$6</f>
-        <v>Phụ huynh Tạ Tiến Minh t1</v>
+        <f>"Phụ huynh "&amp;A3&amp;" t"&amp;$B$7</f>
+        <v>Phụ huynh Tạ Tiến Minh t2</v>
       </c>
     </row>
     <row r="4" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
@@ -1239,7 +1245,7 @@
         <v>47</v>
       </c>
       <c r="E4" s="27" t="str">
-        <f t="shared" ref="E4" si="3">C4&amp;RIGHT(B4,2)&amp;D4</f>
+        <f t="shared" ref="E4:E5" si="3">C4&amp;RIGHT(B4,2)&amp;D4</f>
         <v>101203</v>
       </c>
       <c r="F4" s="28"/>
@@ -1284,7 +1290,7 @@
         <v>150000</v>
       </c>
       <c r="AN4" s="32">
-        <f t="shared" ref="AN4" si="4">COUNT(F4:AJ4)</f>
+        <f t="shared" ref="AN4:AN5" si="4">COUNT(F4:AJ4)</f>
         <v>0</v>
       </c>
       <c r="AO4" s="33">
@@ -1292,8 +1298,8 @@
         <v>0</v>
       </c>
       <c r="AP4" s="34" t="str">
-        <f>"Phụ huynh "&amp;A4&amp;" t"&amp;$B$6</f>
-        <v>Phụ huynh Lê Trần Bảo Lộc t1</v>
+        <f>"Phụ huynh "&amp;A4&amp;" t"&amp;$B$7</f>
+        <v>Phụ huynh Lê Trần Bảo Lộc t2</v>
       </c>
     </row>
     <row r="5" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
@@ -1310,7 +1316,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>101004</v>
       </c>
       <c r="F5" s="28"/>
@@ -1355,353 +1361,377 @@
         <v>100000</v>
       </c>
       <c r="AN5" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="33">
+        <f t="shared" ref="AO5" si="5">AN5*AM5-AK5</f>
+        <v>0</v>
+      </c>
+      <c r="AP5" s="34" t="str">
+        <f>"Phụ huynh "&amp;A5&amp;" t"&amp;$B$7</f>
+        <v>Phụ huynh Đặng Đức Mạnh t2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="25">
+        <v>2009</v>
+      </c>
+      <c r="C6" s="25">
+        <v>10</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>100905</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="30" t="str">
+        <f>F6&amp;" "&amp;G6&amp;" "&amp;H6&amp;" "&amp;I6&amp;" "&amp;J6&amp;" "&amp;K6&amp;" "&amp;L6&amp;" "&amp;M6&amp;" "&amp;N6&amp;" "&amp;O6&amp;" "&amp;P6&amp;" "&amp;Q6&amp;" "&amp;R6&amp;" "&amp;S6&amp;" "&amp;T6&amp;" "&amp;U6&amp;" "&amp;V6&amp;" "&amp;W6&amp;" "&amp;X6&amp;" "&amp;Y6&amp;" "&amp;Z6&amp;" "&amp;AA6&amp;" "&amp;AB6&amp;" "&amp;AC6&amp;" "&amp;AD6&amp;" "&amp;AE6&amp;" "&amp;AF6&amp;" "&amp;AG6&amp;" "&amp;AH6&amp;" "&amp;AI6&amp;" "&amp;AJ6&amp;" "</f>
+        <v xml:space="preserve">                               </v>
+      </c>
+      <c r="AM6" s="31">
+        <v>100000</v>
+      </c>
+      <c r="AN6" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AO5" s="33">
+      <c r="AO6" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AP5" s="34" t="str">
-        <f>"Phụ huynh "&amp;A5&amp;" t"&amp;$B$6</f>
-        <v>Phụ huynh Đặng Đức Mạnh t1</v>
+      <c r="AP6" s="34" t="str">
+        <f>"Phụ huynh "&amp;A6&amp;" t"&amp;$B$7</f>
+        <v>Phụ huynh Khổng Minh Đăng t2</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+    <row r="7" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="38">
-        <v>1</v>
+      <c r="B7" s="38">
+        <v>2</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="F6" s="41">
-        <f>DATE($B7,$B6,1)</f>
-        <v>45658</v>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="F7" s="41">
+        <f>DATE($B8,$B7,1)</f>
+        <v>45689</v>
       </c>
-      <c r="G6" s="41">
-        <f t="shared" ref="G6:AJ6" si="5">F6+1</f>
-        <v>45659</v>
+      <c r="G7" s="41">
+        <f t="shared" ref="G7:AJ7" si="6">F7+1</f>
+        <v>45690</v>
       </c>
-      <c r="H6" s="41">
-        <f t="shared" si="5"/>
-        <v>45660</v>
+      <c r="H7" s="41">
+        <f t="shared" si="6"/>
+        <v>45691</v>
       </c>
-      <c r="I6" s="41">
-        <f t="shared" si="5"/>
-        <v>45661</v>
+      <c r="I7" s="41">
+        <f t="shared" si="6"/>
+        <v>45692</v>
       </c>
-      <c r="J6" s="41">
-        <f t="shared" si="5"/>
-        <v>45662</v>
+      <c r="J7" s="41">
+        <f t="shared" si="6"/>
+        <v>45693</v>
       </c>
-      <c r="K6" s="41">
-        <f t="shared" si="5"/>
-        <v>45663</v>
+      <c r="K7" s="41">
+        <f t="shared" si="6"/>
+        <v>45694</v>
       </c>
-      <c r="L6" s="41">
-        <f t="shared" si="5"/>
-        <v>45664</v>
+      <c r="L7" s="41">
+        <f t="shared" si="6"/>
+        <v>45695</v>
       </c>
-      <c r="M6" s="41">
-        <f t="shared" si="5"/>
-        <v>45665</v>
+      <c r="M7" s="41">
+        <f t="shared" si="6"/>
+        <v>45696</v>
       </c>
-      <c r="N6" s="41">
-        <f t="shared" si="5"/>
-        <v>45666</v>
+      <c r="N7" s="41">
+        <f t="shared" si="6"/>
+        <v>45697</v>
       </c>
-      <c r="O6" s="41">
-        <f t="shared" si="5"/>
-        <v>45667</v>
+      <c r="O7" s="41">
+        <f t="shared" si="6"/>
+        <v>45698</v>
       </c>
-      <c r="P6" s="41">
-        <f t="shared" si="5"/>
-        <v>45668</v>
+      <c r="P7" s="41">
+        <f t="shared" si="6"/>
+        <v>45699</v>
       </c>
-      <c r="Q6" s="41">
-        <f t="shared" si="5"/>
-        <v>45669</v>
+      <c r="Q7" s="41">
+        <f t="shared" si="6"/>
+        <v>45700</v>
       </c>
-      <c r="R6" s="41">
-        <f t="shared" si="5"/>
-        <v>45670</v>
+      <c r="R7" s="41">
+        <f t="shared" si="6"/>
+        <v>45701</v>
       </c>
-      <c r="S6" s="41">
-        <f t="shared" si="5"/>
-        <v>45671</v>
+      <c r="S7" s="41">
+        <f t="shared" si="6"/>
+        <v>45702</v>
       </c>
-      <c r="T6" s="41">
-        <f t="shared" si="5"/>
-        <v>45672</v>
+      <c r="T7" s="41">
+        <f t="shared" si="6"/>
+        <v>45703</v>
       </c>
-      <c r="U6" s="41">
-        <f t="shared" si="5"/>
-        <v>45673</v>
+      <c r="U7" s="41">
+        <f t="shared" si="6"/>
+        <v>45704</v>
       </c>
-      <c r="V6" s="41">
-        <f t="shared" si="5"/>
-        <v>45674</v>
+      <c r="V7" s="41">
+        <f t="shared" si="6"/>
+        <v>45705</v>
       </c>
-      <c r="W6" s="41">
-        <f t="shared" si="5"/>
-        <v>45675</v>
+      <c r="W7" s="41">
+        <f t="shared" si="6"/>
+        <v>45706</v>
       </c>
-      <c r="X6" s="41">
-        <f t="shared" si="5"/>
-        <v>45676</v>
+      <c r="X7" s="41">
+        <f t="shared" si="6"/>
+        <v>45707</v>
       </c>
-      <c r="Y6" s="41">
-        <f t="shared" si="5"/>
-        <v>45677</v>
+      <c r="Y7" s="41">
+        <f t="shared" si="6"/>
+        <v>45708</v>
       </c>
-      <c r="Z6" s="41">
-        <f t="shared" si="5"/>
-        <v>45678</v>
+      <c r="Z7" s="41">
+        <f t="shared" si="6"/>
+        <v>45709</v>
       </c>
-      <c r="AA6" s="41">
-        <f t="shared" si="5"/>
-        <v>45679</v>
+      <c r="AA7" s="41">
+        <f t="shared" si="6"/>
+        <v>45710</v>
       </c>
-      <c r="AB6" s="41">
-        <f t="shared" si="5"/>
-        <v>45680</v>
+      <c r="AB7" s="41">
+        <f t="shared" si="6"/>
+        <v>45711</v>
       </c>
-      <c r="AC6" s="41">
-        <f t="shared" si="5"/>
-        <v>45681</v>
+      <c r="AC7" s="41">
+        <f t="shared" si="6"/>
+        <v>45712</v>
       </c>
-      <c r="AD6" s="41">
-        <f t="shared" si="5"/>
-        <v>45682</v>
+      <c r="AD7" s="41">
+        <f t="shared" si="6"/>
+        <v>45713</v>
       </c>
-      <c r="AE6" s="41">
-        <f t="shared" si="5"/>
-        <v>45683</v>
+      <c r="AE7" s="41">
+        <f t="shared" si="6"/>
+        <v>45714</v>
       </c>
-      <c r="AF6" s="41">
-        <f t="shared" si="5"/>
-        <v>45684</v>
+      <c r="AF7" s="41">
+        <f t="shared" si="6"/>
+        <v>45715</v>
       </c>
-      <c r="AG6" s="41">
-        <f t="shared" si="5"/>
-        <v>45685</v>
+      <c r="AG7" s="41">
+        <f t="shared" si="6"/>
+        <v>45716</v>
       </c>
-      <c r="AH6" s="41">
-        <f t="shared" si="5"/>
-        <v>45686</v>
+      <c r="AH7" s="41">
+        <f t="shared" si="6"/>
+        <v>45717</v>
       </c>
-      <c r="AI6" s="41">
-        <f t="shared" si="5"/>
-        <v>45687</v>
+      <c r="AI7" s="41">
+        <f t="shared" si="6"/>
+        <v>45718</v>
       </c>
-      <c r="AJ6" s="41">
-        <f t="shared" si="5"/>
-        <v>45688</v>
-      </c>
-      <c r="AP6" s="35"/>
-      <c r="AW6" s="36"/>
-      <c r="AX6" s="35"/>
-    </row>
-    <row r="7" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="45">
-        <v>2025</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="32" t="str">
-        <f>TEXT(F6,"[$-42A]DDD")</f>
-        <v>T4</v>
-      </c>
-      <c r="G7" s="32" t="str">
-        <f t="shared" ref="G7:AJ7" si="6">TEXT(G6,"[$-42A]DDD")</f>
-        <v>T5</v>
-      </c>
-      <c r="H7" s="32" t="str">
+      <c r="AJ7" s="41">
         <f t="shared" si="6"/>
-        <v>T6</v>
-      </c>
-      <c r="I7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>T7</v>
-      </c>
-      <c r="J7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>CN</v>
-      </c>
-      <c r="K7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>T2</v>
-      </c>
-      <c r="L7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>T3</v>
-      </c>
-      <c r="M7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>T4</v>
-      </c>
-      <c r="N7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>T5</v>
-      </c>
-      <c r="O7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>T6</v>
-      </c>
-      <c r="P7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>T7</v>
-      </c>
-      <c r="Q7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>CN</v>
-      </c>
-      <c r="R7" s="32" t="str">
-        <f>TEXT(R6,"[$-42A]DDD")</f>
-        <v>T2</v>
-      </c>
-      <c r="S7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>T3</v>
-      </c>
-      <c r="T7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>T4</v>
-      </c>
-      <c r="U7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>T5</v>
-      </c>
-      <c r="V7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>T6</v>
-      </c>
-      <c r="W7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>T7</v>
-      </c>
-      <c r="X7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>CN</v>
-      </c>
-      <c r="Y7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>T2</v>
-      </c>
-      <c r="Z7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>T3</v>
-      </c>
-      <c r="AA7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>T4</v>
-      </c>
-      <c r="AB7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>T5</v>
-      </c>
-      <c r="AC7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>T6</v>
-      </c>
-      <c r="AD7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>T7</v>
-      </c>
-      <c r="AE7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>CN</v>
-      </c>
-      <c r="AF7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>T2</v>
-      </c>
-      <c r="AG7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>T3</v>
-      </c>
-      <c r="AH7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>T4</v>
-      </c>
-      <c r="AI7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>T5</v>
-      </c>
-      <c r="AJ7" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>T6</v>
-      </c>
-      <c r="AM7" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN7" s="47">
-        <f>SUM(AN2:AN5)</f>
-        <v>0</v>
-      </c>
-      <c r="AO7" s="48">
-        <f>SUM(AO2:AO5)</f>
-        <v>0</v>
+        <v>45719</v>
       </c>
       <c r="AP7" s="35"/>
       <c r="AW7" s="36"/>
       <c r="AX7" s="35"/>
     </row>
     <row r="8" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="39"/>
-      <c r="C8" s="35"/>
+      <c r="A8" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="45">
+        <v>2025</v>
+      </c>
       <c r="D8" s="39"/>
       <c r="E8" s="39"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="49"/>
-      <c r="AI8" s="49"/>
-      <c r="AJ8" s="49"/>
-      <c r="AK8" s="49"/>
-      <c r="AL8" s="49"/>
-      <c r="AN8" s="35"/>
-      <c r="AO8" s="50"/>
+      <c r="F8" s="32" t="str">
+        <f>TEXT(F7,"[$-42A]DDD")</f>
+        <v>T7</v>
+      </c>
+      <c r="G8" s="32" t="str">
+        <f t="shared" ref="G8:AJ8" si="7">TEXT(G7,"[$-42A]DDD")</f>
+        <v>CN</v>
+      </c>
+      <c r="H8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>T2</v>
+      </c>
+      <c r="I8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>T3</v>
+      </c>
+      <c r="J8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>T4</v>
+      </c>
+      <c r="K8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>T5</v>
+      </c>
+      <c r="L8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>T6</v>
+      </c>
+      <c r="M8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>T7</v>
+      </c>
+      <c r="N8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>CN</v>
+      </c>
+      <c r="O8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>T2</v>
+      </c>
+      <c r="P8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>T3</v>
+      </c>
+      <c r="Q8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>T4</v>
+      </c>
+      <c r="R8" s="32" t="str">
+        <f>TEXT(R7,"[$-42A]DDD")</f>
+        <v>T5</v>
+      </c>
+      <c r="S8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>T6</v>
+      </c>
+      <c r="T8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>T7</v>
+      </c>
+      <c r="U8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>CN</v>
+      </c>
+      <c r="V8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>T2</v>
+      </c>
+      <c r="W8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>T3</v>
+      </c>
+      <c r="X8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>T4</v>
+      </c>
+      <c r="Y8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>T5</v>
+      </c>
+      <c r="Z8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>T6</v>
+      </c>
+      <c r="AA8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>T7</v>
+      </c>
+      <c r="AB8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>CN</v>
+      </c>
+      <c r="AC8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>T2</v>
+      </c>
+      <c r="AD8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>T3</v>
+      </c>
+      <c r="AE8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>T4</v>
+      </c>
+      <c r="AF8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>T5</v>
+      </c>
+      <c r="AG8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>T6</v>
+      </c>
+      <c r="AH8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>T7</v>
+      </c>
+      <c r="AI8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>CN</v>
+      </c>
+      <c r="AJ8" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>T2</v>
+      </c>
+      <c r="AM8" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN8" s="47">
+        <f>SUM(AN2:AN6)</f>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="48">
+        <f>SUM(AO2:AO6)</f>
+        <v>0</v>
+      </c>
       <c r="AP8" s="35"/>
       <c r="AW8" s="36"/>
       <c r="AX8" s="35"/>
     </row>
     <row r="9" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="51" t="s">
-        <v>15</v>
-      </c>
       <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="39"/>
       <c r="E9" s="39"/>
       <c r="F9" s="49"/>
@@ -1744,8 +1774,8 @@
       <c r="AX9" s="35"/>
     </row>
     <row r="10" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
-        <v>16</v>
+      <c r="A10" s="51" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -1791,8 +1821,8 @@
       <c r="AX10" s="35"/>
     </row>
     <row r="11" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="53" t="s">
-        <v>19</v>
+      <c r="A11" s="52" t="s">
+        <v>16</v>
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -1833,8 +1863,14 @@
       <c r="AL11" s="49"/>
       <c r="AN11" s="35"/>
       <c r="AO11" s="50"/>
+      <c r="AP11" s="35"/>
+      <c r="AW11" s="36"/>
+      <c r="AX11" s="35"/>
     </row>
     <row r="12" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="53" t="s">
+        <v>19</v>
+      </c>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
@@ -1876,9 +1912,6 @@
       <c r="AO12" s="50"/>
     </row>
     <row r="13" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="54" t="s">
-        <v>36</v>
-      </c>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
@@ -1920,8 +1953,8 @@
       <c r="AO13" s="50"/>
     </row>
     <row r="14" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="55">
-        <v>982459626789</v>
+      <c r="A14" s="54" t="s">
+        <v>36</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -1964,8 +1997,8 @@
       <c r="AO14" s="50"/>
     </row>
     <row r="15" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="54" t="s">
-        <v>38</v>
+      <c r="A15" s="55">
+        <v>982459626789</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -2008,7 +2041,9 @@
       <c r="AO15" s="50"/>
     </row>
     <row r="16" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
+      <c r="A16" s="54" t="s">
+        <v>38</v>
+      </c>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
@@ -2050,9 +2085,7 @@
       <c r="AO16" s="50"/>
     </row>
     <row r="17" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="56" t="s">
-        <v>48</v>
-      </c>
+      <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
@@ -2095,7 +2128,7 @@
     </row>
     <row r="18" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -2138,7 +2171,9 @@
       <c r="AO18" s="50"/>
     </row>
     <row r="19" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
+      <c r="A19" s="56" t="s">
+        <v>49</v>
+      </c>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
@@ -40945,12 +40980,54 @@
       <c r="AN942" s="35"/>
       <c r="AO942" s="50"/>
     </row>
+    <row r="943" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A943" s="39"/>
+      <c r="B943" s="39"/>
+      <c r="C943" s="39"/>
+      <c r="D943" s="39"/>
+      <c r="E943" s="39"/>
+      <c r="F943" s="49"/>
+      <c r="G943" s="49"/>
+      <c r="H943" s="49"/>
+      <c r="I943" s="49"/>
+      <c r="J943" s="49"/>
+      <c r="K943" s="49"/>
+      <c r="L943" s="49"/>
+      <c r="M943" s="49"/>
+      <c r="N943" s="49"/>
+      <c r="O943" s="49"/>
+      <c r="P943" s="49"/>
+      <c r="Q943" s="49"/>
+      <c r="R943" s="49"/>
+      <c r="S943" s="49"/>
+      <c r="T943" s="49"/>
+      <c r="U943" s="49"/>
+      <c r="V943" s="49"/>
+      <c r="W943" s="49"/>
+      <c r="X943" s="49"/>
+      <c r="Y943" s="49"/>
+      <c r="Z943" s="49"/>
+      <c r="AA943" s="49"/>
+      <c r="AB943" s="49"/>
+      <c r="AC943" s="49"/>
+      <c r="AD943" s="49"/>
+      <c r="AE943" s="49"/>
+      <c r="AF943" s="49"/>
+      <c r="AG943" s="49"/>
+      <c r="AH943" s="49"/>
+      <c r="AI943" s="49"/>
+      <c r="AJ943" s="49"/>
+      <c r="AK943" s="49"/>
+      <c r="AL943" s="49"/>
+      <c r="AN943" s="35"/>
+      <c r="AO943" s="50"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:AJ1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="F2:AJ5">
+  <conditionalFormatting sqref="F2:AJ6">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -40965,8 +41042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9C46E9-8712-4DCF-AB81-74C6CED0D6F5}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/00 Tổng kết/Điểm danh (Tổng kết vào cuối tháng).xlsx
+++ b/00 Tổng kết/Điểm danh (Tổng kết vào cuối tháng).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\WEB-Hoc sinh\00 Tổng kết\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BD77C0-0A34-4410-8DD6-848203387AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F49512-2BEF-48CE-BA14-05B245908E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>STT</t>
   </si>
@@ -343,6 +343,12 @@
   </si>
   <si>
     <t>05</t>
+  </si>
+  <si>
+    <t>Mật khẩu</t>
+  </si>
+  <si>
+    <t>Zalo</t>
   </si>
 </sst>
 </file>
@@ -983,13 +989,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX943"/>
+  <dimension ref="A1:AW943"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.8984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1015,12 +1021,14 @@
     <col min="40" max="40" width="10.59765625" style="42" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="11.19921875" style="43" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="26.59765625" style="40" bestFit="1" customWidth="1"/>
-    <col min="43" max="49" width="3.8984375" style="35"/>
-    <col min="50" max="50" width="3.8984375" style="36"/>
-    <col min="51" max="16384" width="3.8984375" style="35"/>
+    <col min="43" max="43" width="8.796875" style="40" customWidth="1"/>
+    <col min="44" max="44" width="9.19921875" style="35" bestFit="1" customWidth="1"/>
+    <col min="45" max="48" width="3.8984375" style="35"/>
+    <col min="49" max="49" width="3.8984375" style="36"/>
+    <col min="50" max="16384" width="3.8984375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" s="23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1088,8 +1096,14 @@
       <c r="AP1" s="22" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AQ1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR1" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
@@ -1114,7 +1128,9 @@
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
+      <c r="N2" s="28">
+        <v>9</v>
+      </c>
       <c r="O2" s="28"/>
       <c r="P2" s="28"/>
       <c r="Q2" s="28"/>
@@ -1142,25 +1158,29 @@
       </c>
       <c r="AL2" s="30" t="str">
         <f>F2&amp;" "&amp;G2&amp;" "&amp;H2&amp;" "&amp;I2&amp;" "&amp;J2&amp;" "&amp;K2&amp;" "&amp;L2&amp;" "&amp;M2&amp;" "&amp;N2&amp;" "&amp;O2&amp;" "&amp;P2&amp;" "&amp;Q2&amp;" "&amp;R2&amp;" "&amp;S2&amp;" "&amp;T2&amp;" "&amp;U2&amp;" "&amp;V2&amp;" "&amp;W2&amp;" "&amp;X2&amp;" "&amp;Y2&amp;" "&amp;Z2&amp;" "&amp;AA2&amp;" "&amp;AB2&amp;" "&amp;AC2&amp;" "&amp;AD2&amp;" "&amp;AE2&amp;" "&amp;AF2&amp;" "&amp;AG2&amp;" "&amp;AH2&amp;" "&amp;AI2&amp;" "&amp;AJ2&amp;" "</f>
-        <v xml:space="preserve">                               </v>
+        <v xml:space="preserve">        9                       </v>
       </c>
       <c r="AM2" s="31">
         <v>100000</v>
       </c>
       <c r="AN2" s="32">
         <f>COUNT(F2:AJ2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO2" s="33">
         <f>AN2*AM2-AK2</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="AP2" s="34" t="str">
         <f>"Phụ huynh "&amp;A2&amp;" t"&amp;$B$7</f>
         <v>Phụ huynh Vũ Văn Tiến t2</v>
       </c>
-    </row>
-    <row r="3" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AQ2" s="40" t="str">
+        <f>"Cháu gửi phụ huynh thông báo thu tiền học phí của em "&amp;A2&amp;" tháng "&amp;$B$7&amp;"/"&amp;$B$8&amp;" ạ." &amp;" Phụ huynh truy cập vào link: https://luuthetaibean.github.io/Origin-Bootstrap/"&amp;" để đóng học phí, chọn đúng họ và tên học sinh. Mật khẩu mở khóa là: "&amp;AR2 &amp;". Trân trọng!"</f>
+        <v>Cháu gửi phụ huynh thông báo thu tiền học phí của em Vũ Văn Tiến tháng 2/2025 ạ. Phụ huynh truy cập vào link: https://luuthetaibean.github.io/Origin-Bootstrap/ để đóng học phí, chọn đúng họ và tên học sinh. Mật khẩu mở khóa là: . Trân trọng!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
@@ -1185,7 +1205,9 @@
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
+      <c r="N3" s="28">
+        <v>9</v>
+      </c>
       <c r="O3" s="28"/>
       <c r="P3" s="28"/>
       <c r="Q3" s="28"/>
@@ -1213,25 +1235,32 @@
       </c>
       <c r="AL3" s="30" t="str">
         <f>F3&amp;" "&amp;G3&amp;" "&amp;H3&amp;" "&amp;I3&amp;" "&amp;J3&amp;" "&amp;K3&amp;" "&amp;L3&amp;" "&amp;M3&amp;" "&amp;N3&amp;" "&amp;O3&amp;" "&amp;P3&amp;" "&amp;Q3&amp;" "&amp;R3&amp;" "&amp;S3&amp;" "&amp;T3&amp;" "&amp;U3&amp;" "&amp;V3&amp;" "&amp;W3&amp;" "&amp;X3&amp;" "&amp;Y3&amp;" "&amp;Z3&amp;" "&amp;AA3&amp;" "&amp;AB3&amp;" "&amp;AC3&amp;" "&amp;AD3&amp;" "&amp;AE3&amp;" "&amp;AF3&amp;" "&amp;AG3&amp;" "&amp;AH3&amp;" "&amp;AI3&amp;" "&amp;AJ3&amp;" "</f>
-        <v xml:space="preserve">                               </v>
+        <v xml:space="preserve">        9                       </v>
       </c>
       <c r="AM3" s="31">
         <v>100000</v>
       </c>
       <c r="AN3" s="32">
         <f t="shared" ref="AN3:AN6" si="1">COUNT(F3:AJ3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO3" s="33">
         <f t="shared" ref="AO3:AO6" si="2">AN3*AM3-AK3</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="AP3" s="34" t="str">
         <f>"Phụ huynh "&amp;A3&amp;" t"&amp;$B$7</f>
         <v>Phụ huynh Tạ Tiến Minh t2</v>
       </c>
-    </row>
-    <row r="4" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AQ3" s="40" t="str">
+        <f t="shared" ref="AQ3:AQ6" si="3">"Cháu gửi phụ huynh thông báo thu tiền học phí của em "&amp;A3&amp;" tháng "&amp;$B$7&amp;"/"&amp;$B$8&amp;" ạ." &amp;" Phụ huynh truy cập vào link: https://luuthetaibean.github.io/Origin-Bootstrap/"&amp;" để đóng học phí, chọn đúng họ và tên học sinh. Mật khẩu mở khóa là: "&amp;AR3 &amp;". Trân trọng!"</f>
+        <v>Cháu gửi phụ huynh thông báo thu tiền học phí của em Tạ Tiến Minh tháng 2/2025 ạ. Phụ huynh truy cập vào link: https://luuthetaibean.github.io/Origin-Bootstrap/ để đóng học phí, chọn đúng họ và tên học sinh. Mật khẩu mở khóa là: 123. Trân trọng!</v>
+      </c>
+      <c r="AR3" s="35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>46</v>
       </c>
@@ -1245,7 +1274,7 @@
         <v>47</v>
       </c>
       <c r="E4" s="27" t="str">
-        <f t="shared" ref="E4:E5" si="3">C4&amp;RIGHT(B4,2)&amp;D4</f>
+        <f t="shared" ref="E4:E5" si="4">C4&amp;RIGHT(B4,2)&amp;D4</f>
         <v>101203</v>
       </c>
       <c r="F4" s="28"/>
@@ -1255,10 +1284,14 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
+      <c r="M4" s="28">
+        <v>8</v>
+      </c>
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
+      <c r="P4" s="28">
+        <v>11</v>
+      </c>
       <c r="Q4" s="28"/>
       <c r="R4" s="28"/>
       <c r="S4" s="28"/>
@@ -1284,25 +1317,29 @@
       </c>
       <c r="AL4" s="30" t="str">
         <f>F4&amp;" "&amp;G4&amp;" "&amp;H4&amp;" "&amp;I4&amp;" "&amp;J4&amp;" "&amp;K4&amp;" "&amp;L4&amp;" "&amp;M4&amp;" "&amp;N4&amp;" "&amp;O4&amp;" "&amp;P4&amp;" "&amp;Q4&amp;" "&amp;R4&amp;" "&amp;S4&amp;" "&amp;T4&amp;" "&amp;U4&amp;" "&amp;V4&amp;" "&amp;W4&amp;" "&amp;X4&amp;" "&amp;Y4&amp;" "&amp;Z4&amp;" "&amp;AA4&amp;" "&amp;AB4&amp;" "&amp;AC4&amp;" "&amp;AD4&amp;" "&amp;AE4&amp;" "&amp;AF4&amp;" "&amp;AG4&amp;" "&amp;AH4&amp;" "&amp;AI4&amp;" "&amp;AJ4&amp;" "</f>
-        <v xml:space="preserve">                               </v>
+        <v xml:space="preserve">       8   11                     </v>
       </c>
       <c r="AM4" s="31">
         <v>150000</v>
       </c>
       <c r="AN4" s="32">
-        <f t="shared" ref="AN4:AN5" si="4">COUNT(F4:AJ4)</f>
-        <v>0</v>
+        <f t="shared" ref="AN4:AN5" si="5">COUNT(F4:AJ4)</f>
+        <v>2</v>
       </c>
       <c r="AO4" s="33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="AP4" s="34" t="str">
         <f>"Phụ huynh "&amp;A4&amp;" t"&amp;$B$7</f>
         <v>Phụ huynh Lê Trần Bảo Lộc t2</v>
       </c>
-    </row>
-    <row r="5" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AQ4" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Cháu gửi phụ huynh thông báo thu tiền học phí của em Lê Trần Bảo Lộc tháng 2/2025 ạ. Phụ huynh truy cập vào link: https://luuthetaibean.github.io/Origin-Bootstrap/ để đóng học phí, chọn đúng họ và tên học sinh. Mật khẩu mở khóa là: . Trân trọng!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
@@ -1316,7 +1353,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>101004</v>
       </c>
       <c r="F5" s="28"/>
@@ -1326,8 +1363,12 @@
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
+      <c r="M5" s="28">
+        <v>8</v>
+      </c>
+      <c r="N5" s="28">
+        <v>9</v>
+      </c>
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
       <c r="Q5" s="28"/>
@@ -1355,25 +1396,29 @@
       </c>
       <c r="AL5" s="30" t="str">
         <f>F5&amp;" "&amp;G5&amp;" "&amp;H5&amp;" "&amp;I5&amp;" "&amp;J5&amp;" "&amp;K5&amp;" "&amp;L5&amp;" "&amp;M5&amp;" "&amp;N5&amp;" "&amp;O5&amp;" "&amp;P5&amp;" "&amp;Q5&amp;" "&amp;R5&amp;" "&amp;S5&amp;" "&amp;T5&amp;" "&amp;U5&amp;" "&amp;V5&amp;" "&amp;W5&amp;" "&amp;X5&amp;" "&amp;Y5&amp;" "&amp;Z5&amp;" "&amp;AA5&amp;" "&amp;AB5&amp;" "&amp;AC5&amp;" "&amp;AD5&amp;" "&amp;AE5&amp;" "&amp;AF5&amp;" "&amp;AG5&amp;" "&amp;AH5&amp;" "&amp;AI5&amp;" "&amp;AJ5&amp;" "</f>
-        <v xml:space="preserve">                               </v>
+        <v xml:space="preserve">       8 9                       </v>
       </c>
       <c r="AM5" s="31">
         <v>100000</v>
       </c>
       <c r="AN5" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="AO5" s="33">
-        <f t="shared" ref="AO5" si="5">AN5*AM5-AK5</f>
-        <v>0</v>
+        <f t="shared" ref="AO5" si="6">AN5*AM5-AK5</f>
+        <v>200000</v>
       </c>
       <c r="AP5" s="34" t="str">
         <f>"Phụ huynh "&amp;A5&amp;" t"&amp;$B$7</f>
         <v>Phụ huynh Đặng Đức Mạnh t2</v>
       </c>
-    </row>
-    <row r="6" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AQ5" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Cháu gửi phụ huynh thông báo thu tiền học phí của em Đặng Đức Mạnh tháng 2/2025 ạ. Phụ huynh truy cập vào link: https://luuthetaibean.github.io/Origin-Bootstrap/ để đóng học phí, chọn đúng họ và tên học sinh. Mật khẩu mở khóa là: . Trân trọng!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>50</v>
       </c>
@@ -1398,7 +1443,9 @@
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
+      <c r="N6" s="28">
+        <v>9</v>
+      </c>
       <c r="O6" s="28"/>
       <c r="P6" s="28"/>
       <c r="Q6" s="28"/>
@@ -1426,25 +1473,29 @@
       </c>
       <c r="AL6" s="30" t="str">
         <f>F6&amp;" "&amp;G6&amp;" "&amp;H6&amp;" "&amp;I6&amp;" "&amp;J6&amp;" "&amp;K6&amp;" "&amp;L6&amp;" "&amp;M6&amp;" "&amp;N6&amp;" "&amp;O6&amp;" "&amp;P6&amp;" "&amp;Q6&amp;" "&amp;R6&amp;" "&amp;S6&amp;" "&amp;T6&amp;" "&amp;U6&amp;" "&amp;V6&amp;" "&amp;W6&amp;" "&amp;X6&amp;" "&amp;Y6&amp;" "&amp;Z6&amp;" "&amp;AA6&amp;" "&amp;AB6&amp;" "&amp;AC6&amp;" "&amp;AD6&amp;" "&amp;AE6&amp;" "&amp;AF6&amp;" "&amp;AG6&amp;" "&amp;AH6&amp;" "&amp;AI6&amp;" "&amp;AJ6&amp;" "</f>
-        <v xml:space="preserve">                               </v>
+        <v xml:space="preserve">        9                       </v>
       </c>
       <c r="AM6" s="31">
         <v>100000</v>
       </c>
       <c r="AN6" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO6" s="33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="AP6" s="34" t="str">
         <f>"Phụ huynh "&amp;A6&amp;" t"&amp;$B$7</f>
         <v>Phụ huynh Khổng Minh Đăng t2</v>
       </c>
-    </row>
-    <row r="7" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AQ6" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Cháu gửi phụ huynh thông báo thu tiền học phí của em Khổng Minh Đăng tháng 2/2025 ạ. Phụ huynh truy cập vào link: https://luuthetaibean.github.io/Origin-Bootstrap/ để đóng học phí, chọn đúng họ và tên học sinh. Mật khẩu mở khóa là: . Trân trọng!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
         <v>12</v>
       </c>
@@ -1458,130 +1509,131 @@
         <v>45689</v>
       </c>
       <c r="G7" s="41">
-        <f t="shared" ref="G7:AJ7" si="6">F7+1</f>
+        <f t="shared" ref="G7:AJ7" si="7">F7+1</f>
         <v>45690</v>
       </c>
       <c r="H7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45691</v>
       </c>
       <c r="I7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45692</v>
       </c>
       <c r="J7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45693</v>
       </c>
       <c r="K7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45694</v>
       </c>
       <c r="L7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45695</v>
       </c>
       <c r="M7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45696</v>
       </c>
       <c r="N7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45697</v>
       </c>
       <c r="O7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45698</v>
       </c>
       <c r="P7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45699</v>
       </c>
       <c r="Q7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45700</v>
       </c>
       <c r="R7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45701</v>
       </c>
       <c r="S7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45702</v>
       </c>
       <c r="T7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45703</v>
       </c>
       <c r="U7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45704</v>
       </c>
       <c r="V7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45705</v>
       </c>
       <c r="W7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45706</v>
       </c>
       <c r="X7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45707</v>
       </c>
       <c r="Y7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45708</v>
       </c>
       <c r="Z7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45709</v>
       </c>
       <c r="AA7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45710</v>
       </c>
       <c r="AB7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45711</v>
       </c>
       <c r="AC7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45712</v>
       </c>
       <c r="AD7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45713</v>
       </c>
       <c r="AE7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45714</v>
       </c>
       <c r="AF7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45715</v>
       </c>
       <c r="AG7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45716</v>
       </c>
       <c r="AH7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45717</v>
       </c>
       <c r="AI7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45718</v>
       </c>
       <c r="AJ7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45719</v>
       </c>
       <c r="AP7" s="35"/>
-      <c r="AW7" s="36"/>
-      <c r="AX7" s="35"/>
-    </row>
-    <row r="8" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AT7" s="40"/>
+      <c r="AV7" s="36"/>
+      <c r="AW7" s="35"/>
+    </row>
+    <row r="8" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>13</v>
       </c>
@@ -1595,47 +1647,47 @@
         <v>T7</v>
       </c>
       <c r="G8" s="32" t="str">
-        <f t="shared" ref="G8:AJ8" si="7">TEXT(G7,"[$-42A]DDD")</f>
+        <f t="shared" ref="G8:AJ8" si="8">TEXT(G7,"[$-42A]DDD")</f>
         <v>CN</v>
       </c>
       <c r="H8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>T2</v>
       </c>
       <c r="I8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>T3</v>
       </c>
       <c r="J8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>T4</v>
       </c>
       <c r="K8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>T5</v>
       </c>
       <c r="L8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>T6</v>
       </c>
       <c r="M8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>T7</v>
       </c>
       <c r="N8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>CN</v>
       </c>
       <c r="O8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>T2</v>
       </c>
       <c r="P8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>T3</v>
       </c>
       <c r="Q8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>T4</v>
       </c>
       <c r="R8" s="32" t="str">
@@ -1643,75 +1695,75 @@
         <v>T5</v>
       </c>
       <c r="S8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>T6</v>
       </c>
       <c r="T8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>T7</v>
       </c>
       <c r="U8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>CN</v>
       </c>
       <c r="V8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>T2</v>
       </c>
       <c r="W8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>T3</v>
       </c>
       <c r="X8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>T4</v>
       </c>
       <c r="Y8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>T5</v>
       </c>
       <c r="Z8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>T6</v>
       </c>
       <c r="AA8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>T7</v>
       </c>
       <c r="AB8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>CN</v>
       </c>
       <c r="AC8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>T2</v>
       </c>
       <c r="AD8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>T3</v>
       </c>
       <c r="AE8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>T4</v>
       </c>
       <c r="AF8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>T5</v>
       </c>
       <c r="AG8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>T6</v>
       </c>
       <c r="AH8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>T7</v>
       </c>
       <c r="AI8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>CN</v>
       </c>
       <c r="AJ8" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>T2</v>
       </c>
       <c r="AM8" s="46" t="s">
@@ -1719,17 +1771,17 @@
       </c>
       <c r="AN8" s="47">
         <f>SUM(AN2:AN6)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AO8" s="48">
         <f>SUM(AO2:AO6)</f>
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="AP8" s="35"/>
-      <c r="AW8" s="36"/>
-      <c r="AX8" s="35"/>
-    </row>
-    <row r="9" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AV8" s="36"/>
+      <c r="AW8" s="35"/>
+    </row>
+    <row r="9" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="39"/>
       <c r="C9" s="35"/>
       <c r="D9" s="39"/>
@@ -1770,10 +1822,10 @@
       <c r="AN9" s="35"/>
       <c r="AO9" s="50"/>
       <c r="AP9" s="35"/>
-      <c r="AW9" s="36"/>
-      <c r="AX9" s="35"/>
-    </row>
-    <row r="10" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AV9" s="36"/>
+      <c r="AW9" s="35"/>
+    </row>
+    <row r="10" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="51" t="s">
         <v>15</v>
       </c>
@@ -1817,10 +1869,10 @@
       <c r="AN10" s="35"/>
       <c r="AO10" s="50"/>
       <c r="AP10" s="35"/>
-      <c r="AW10" s="36"/>
-      <c r="AX10" s="35"/>
-    </row>
-    <row r="11" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AV10" s="36"/>
+      <c r="AW10" s="35"/>
+    </row>
+    <row r="11" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="52" t="s">
         <v>16</v>
       </c>
@@ -1864,10 +1916,10 @@
       <c r="AN11" s="35"/>
       <c r="AO11" s="50"/>
       <c r="AP11" s="35"/>
-      <c r="AW11" s="36"/>
-      <c r="AX11" s="35"/>
-    </row>
-    <row r="12" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AV11" s="36"/>
+      <c r="AW11" s="35"/>
+    </row>
+    <row r="12" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="53" t="s">
         <v>19</v>
       </c>
@@ -1911,7 +1963,7 @@
       <c r="AN12" s="35"/>
       <c r="AO12" s="50"/>
     </row>
-    <row r="13" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
@@ -1952,7 +2004,7 @@
       <c r="AN13" s="35"/>
       <c r="AO13" s="50"/>
     </row>
-    <row r="14" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="54" t="s">
         <v>36</v>
       </c>
@@ -1996,7 +2048,7 @@
       <c r="AN14" s="35"/>
       <c r="AO14" s="50"/>
     </row>
-    <row r="15" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="55">
         <v>982459626789</v>
       </c>
@@ -2040,7 +2092,7 @@
       <c r="AN15" s="35"/>
       <c r="AO15" s="50"/>
     </row>
-    <row r="16" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="54" t="s">
         <v>38</v>
       </c>
